--- a/提出物/詳細設計書【編集：伊藤明洋】.xlsx
+++ b/提出物/詳細設計書【編集：伊藤明洋】.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5AADDD-77C2-460F-BD2B-BA27B91A5392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A806844-E044-419B-983A-C24AD66E80C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="トップページ" sheetId="1" r:id="rId2"/>
-    <sheet name="トップページ (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="アカウント作成" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="2">#REF!</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -336,12 +336,46 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス形式</t>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半角英数字</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +491,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -775,7 +825,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,9 +988,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,35 +1027,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2520,15 +2588,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>リサーチ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>GO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>！</a:t>
+            <a:t>アカウント作成</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
         </a:p>
@@ -2616,84 +2676,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3171825" cy="752475"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41AEC2C-B800-4AE7-93C5-42A6C03C286A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="885825" y="1895475"/>
-          <a:ext cx="3171825" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>輝く明日へ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>GO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>！</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3540,6 +3522,781 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156C981-CAA6-4B7C-9945-73329D3C810A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="1952625"/>
+          <a:ext cx="6225540" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EE292E-F754-46C9-B477-6D13F5DCB5ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="1819275"/>
+          <a:ext cx="2324100" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>アカウント作成フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FD2B38-5B55-4D5E-B013-1F4DAF516E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="2266950"/>
+          <a:ext cx="1318260" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メールアドレス：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1282FB2-C1CB-4070-BDDA-8BA86F740E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="2276475"/>
+          <a:ext cx="2712720" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E1E7C2-7423-4439-AE94-B9B6D00CB914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="2676525"/>
+          <a:ext cx="2712720" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774B168C-4DAF-417A-8705-F2FC83A8D461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="3086100"/>
+          <a:ext cx="2712720" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58681BE-B113-41B4-BD45-6689398933EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="3524250"/>
+          <a:ext cx="2712720" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>●男　〇女　〇その他</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677FA47E-006D-495A-A466-38416DB2039D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="2667000"/>
+          <a:ext cx="1318260" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6CA1C7-390D-402A-A2EF-5E16CD61A427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="3086100"/>
+          <a:ext cx="1318260" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お名前：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888269BB-FE2B-4C67-9838-CFFAE2A58275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="3514725"/>
+          <a:ext cx="1318260" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>性別：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58D7A35-1160-421C-995C-C49C3023FAE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="4171949"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4130,11 +4887,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4150,7 +4907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
@@ -4566,209 +5323,210 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="59" t="s">
+      <c r="G27" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
     </row>
     <row r="31" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G35:L35"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
     <mergeCell ref="G27:L27"/>
@@ -4777,7 +5535,6 @@
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
     <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G35:L35"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4790,12 +5547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C54C75B-D93B-4B65-8FFB-8AE058137D6C}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4902,85 +5660,85 @@
       <c r="Q7" s="51"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
       <c r="N8" s="52"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
       <c r="N9" s="52"/>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
       <c r="N10" s="52"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
       <c r="N11" s="55"/>
       <c r="O11" s="56"/>
       <c r="P11" s="56"/>
       <c r="Q11" s="57"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
       <c r="N12" s="7" t="s">
         <v>19</v>
       </c>
@@ -4989,43 +5747,41 @@
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
       <c r="N13" s="7"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
       <c r="N14" s="7"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -5206,206 +5962,142 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="59" t="s">
+      <c r="G27" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="62" t="s">
+      <c r="B28" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="E28" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="58">
+        <v>256</v>
+      </c>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="B29" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="58">
+        <v>16</v>
+      </c>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
     </row>
     <row r="31" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/提出物/詳細設計書【編集：伊藤明洋】.xlsx
+++ b/提出物/詳細設計書【編集：伊藤明洋】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A806844-E044-419B-983A-C24AD66E80C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FAC5E7-953D-4A0E-922B-64C6B55EED6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -199,19 +199,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>リンク選択時、トップページ画面へ遷移する。</t>
-    <rPh sb="3" eb="6">
-      <t>センタクジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>アカウント作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
@@ -223,22 +210,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>リンク選択時、アカウント作成画面へ遷移する。</t>
-    <rPh sb="3" eb="6">
-      <t>センタクジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TOP</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -247,32 +218,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>リンク選択時、セッションがあればマイページ画面へ、
-セッションがなければログイン画面へ遷移する。</t>
-    <rPh sb="3" eb="6">
-      <t>センタクジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ログイン/ログアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リンク選択時、セッションがあればログイン画面へ、
-セッションがなければログアウト画面へ遷移する。</t>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -283,23 +229,6 @@
     <rPh sb="1" eb="4">
       <t>イインカイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リンク選択時、運営会社画面へ遷移する。</t>
-    <rPh sb="7" eb="9">
-      <t>ウンエイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイシャ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リンク選択時、プライバシーポリシー画面へ遷移する。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -324,16 +253,6 @@
   </si>
   <si>
     <t>※</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ナビゲーションバーとフッターは別シート参照。</t>
-    <rPh sb="15" eb="16">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サンショウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -368,6 +287,164 @@
     <rPh sb="0" eb="5">
       <t>ハンカクエイスウジ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>送信</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、アカウント作成画面へ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、セッションがあればマイページ画面へ、
+セッションがなければログイン画面へ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、セッションがあればログイン画面へ、
+セッションがなければログアウト画面へ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、運営会社画面へ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、プライバシーポリシー画面へ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>別ページでは、
+ナビゲーションバー(TOP、マイページ、ログイン/ログアウト)
+ヘッダー(ロゴ画像)
+フッター(TOP、漢委員会、プライパジーポリシー)の説明は省く。</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ハブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、DB内に入力されたユーザー情報を保存する。</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー、ヘッダー、フッターはトップページシート参照。</t>
+    <rPh sb="29" eb="31">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント作成ページ</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>createAccount.php</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -825,7 +902,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,6 +1083,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,23 +1125,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3444,84 +3533,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1971675" cy="733425"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8464D5CB-7047-4128-9DCE-C0EE89462B4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9886950" y="1543050"/>
-          <a:ext cx="1971675" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>輝く明日へ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>GO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>！</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4887,11 +4898,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4907,14 +4918,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -5323,14 +5335,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="70"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
@@ -5348,24 +5360,24 @@
       <c r="F28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
+      <c r="G28" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="58" t="s">
         <v>23</v>
@@ -5373,24 +5385,24 @@
       <c r="F29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="67"/>
+      <c r="G29" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="58" t="s">
         <v>23</v>
@@ -5398,24 +5410,24 @@
       <c r="F30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
-    </row>
-    <row r="31" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+    </row>
+    <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="58" t="s">
         <v>23</v>
@@ -5423,24 +5435,24 @@
       <c r="F31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
-    </row>
-    <row r="32" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
+    </row>
+    <row r="32" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>23</v>
@@ -5448,24 +5460,24 @@
       <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
+      <c r="G32" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>23</v>
@@ -5473,24 +5485,24 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="67"/>
+      <c r="G33" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="58" t="s">
         <v>23</v>
@@ -5498,31 +5510,31 @@
       <c r="F34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
-    </row>
-    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G34" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+    </row>
+    <row r="35" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="63" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
+      <c r="G35" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5547,8 +5559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C54C75B-D93B-4B65-8FFB-8AE058137D6C}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5561,11 +5573,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -5654,27 +5666,27 @@
         <v>18</v>
       </c>
       <c r="L7" s="31"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="51"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="80"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="74"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
@@ -5688,10 +5700,10 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
@@ -5705,10 +5717,10 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
@@ -5722,10 +5734,10 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
@@ -5739,9 +5751,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
-      <c r="N12" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
@@ -5962,86 +5972,102 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="70"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="75" t="s">
-        <v>40</v>
+      <c r="B28" s="67" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="76" t="s">
-        <v>42</v>
+      <c r="E28" s="68" t="s">
+        <v>35</v>
       </c>
       <c r="F28" s="58">
         <v>256</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="77" t="s">
-        <v>43</v>
+      <c r="B29" s="69" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F29" s="58">
         <v>16</v>
       </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="67"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="60"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
+      <c r="B30" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
     </row>
     <row r="31" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="60"/>
+      <c r="B31" s="78" t="s">
+        <v>51</v>
+      </c>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
+      <c r="G31" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="32" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="62"/>
@@ -6049,12 +6075,12 @@
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="61"/>
@@ -6062,12 +6088,12 @@
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="67"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62"/>
@@ -6075,29 +6101,25 @@
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63" t="s">
-        <v>38</v>
-      </c>
+      <c r="B35" s="63"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/提出物/詳細設計書【編集：伊藤明洋】.xlsx
+++ b/提出物/詳細設計書【編集：伊藤明洋】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FAC5E7-953D-4A0E-922B-64C6B55EED6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659E26D-0B79-440A-8E3E-F24319A8DD2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -401,31 +401,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ボタン押下時、DB内に入力されたユーザー情報を保存する。</t>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>※</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -445,6 +420,102 @@
   </si>
   <si>
     <t>createAccount.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お名前</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、DB内に上記に入力されたユーザー情報を保存する。</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力チェック：未入力チェック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>男ならM、女ならF、その他ならOを返す。
+入力チェック：未入力チェック</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力チェック：未入力チェック、形式チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -902,7 +973,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,11 +1172,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1113,6 +1196,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,18 +1209,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4014,7 +4094,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>●男　〇女　〇その他</a:t>
+            <a:t>〇男　〇女　〇その他</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4898,11 +4978,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5335,14 +5415,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
@@ -5360,14 +5440,14 @@
       <c r="F28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="59" t="s">
@@ -5385,14 +5465,14 @@
       <c r="F29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="60" t="s">
@@ -5410,14 +5490,14 @@
       <c r="F30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
     </row>
     <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="60" t="s">
@@ -5435,14 +5515,14 @@
       <c r="F31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
     </row>
     <row r="32" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="62" t="s">
@@ -5460,14 +5540,14 @@
       <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="61" t="s">
@@ -5485,14 +5565,14 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62" t="s">
@@ -5510,14 +5590,14 @@
       <c r="F34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
     </row>
     <row r="35" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="63" t="s">
@@ -5527,14 +5607,14 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="77" t="s">
+      <c r="G35" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5559,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C54C75B-D93B-4B65-8FFB-8AE058137D6C}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5568,16 +5648,17 @@
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -5666,10 +5747,10 @@
         <v>18</v>
       </c>
       <c r="L7" s="31"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="80"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B8" s="66"/>
@@ -5972,14 +6053,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -5997,12 +6078,14 @@
       <c r="F28" s="58">
         <v>256</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
+      <c r="G28" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="84"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
@@ -6020,80 +6103,106 @@
       <c r="F29" s="58">
         <v>16</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="G29" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="84"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="84"/>
+    </row>
+    <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C32" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D32" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G32" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+    </row>
+    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
-    </row>
-    <row r="31" spans="2:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
-    </row>
-    <row r="32" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="62"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
-    </row>
-    <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="61"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
+      <c r="G33" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62"/>
@@ -6101,12 +6210,12 @@
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="63"/>
@@ -6114,24 +6223,24 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/提出物/詳細設計書【編集：伊藤明洋】.xlsx
+++ b/提出物/詳細設計書【編集：伊藤明洋】.xlsx
@@ -8,34 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659E26D-0B79-440A-8E3E-F24319A8DD2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4571C56-9EEC-44CF-A5A1-2ABB3BF6298D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="トップページ" sheetId="1" r:id="rId2"/>
     <sheet name="アカウント作成" sheetId="3" r:id="rId3"/>
+    <sheet name="メールアドレス変更" sheetId="6" r:id="rId4"/>
+    <sheet name="アカウント削除" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
+    <definedName name="アカウント削除" localSheetId="3">#REF!</definedName>
+    <definedName name="アカウント削除">#REF!</definedName>
+    <definedName name="メールアドレス変更">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -518,6 +542,56 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>アカウント削除ページ</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>deleteAccount.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、ログインしているユーザーのユーザー情報を
+DBから削除し、トップページへ遷移する。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー、ヘッダー、フッターはトップページシート参照。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス変更ページ</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>changeMail.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -973,7 +1047,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,6 +1291,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="見出し 1 2" xfId="2" xr:uid="{49FEC98C-FF9C-4DB5-B9BB-F4700F30535B}"/>
@@ -4382,6 +4462,3144 @@
               </a:solidFill>
             </a:rPr>
             <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEC83B3-C7E2-4F2F-889D-E896A82F4A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10601325" y="5286374"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDA2DC5-6D3D-486F-ABAE-38A3D8DE337B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="800100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D45EEF-5AA5-49DD-968D-FA0138D168D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="809625"/>
+          <a:ext cx="4838700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>メールアドレス変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE74DA9B-2DEE-4F66-A1FD-622ED406A9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBD23E4-A9AD-4E6B-9DD1-44CE190256E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4819650"/>
+          <a:ext cx="866775" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F64046B-3223-4625-90F9-73483535A8EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5019675"/>
+          <a:ext cx="952500" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBE71F1-9662-49A8-AF31-85651DED1CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5267325"/>
+          <a:ext cx="1724025" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1442FEE5-87CC-4269-A0A3-B5FC882E5763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="5229225"/>
+          <a:ext cx="2571750" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADF5C5E-7B62-4729-8E88-8207676A8DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5392D353-68FF-4DAF-9109-91C9BFC6C4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953751" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4199545-C469-4E18-9440-EBF438FD4D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13906500" y="771523"/>
+          <a:ext cx="2057400" cy="1885951"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72310240-8E76-442F-A322-AAEAE842FAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2F6E7D-71A4-4EC8-8437-3B2BFB8D0DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1993106" y="1962150"/>
+          <a:ext cx="6258878" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64EDC88-165A-4D71-BDF7-63CEC5C7D1B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2278855" y="1828800"/>
+          <a:ext cx="2638425" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>メールアドレス変更フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED61D31-6CBF-41F0-A332-23BFA25A985F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2297906" y="2276475"/>
+          <a:ext cx="1750219" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新しいメールアドレス：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690563</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F5192E-24F3-49BB-B374-C2B368F3CCA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4167188" y="2286000"/>
+          <a:ext cx="2724626" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183832</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E25C7DE-DDBE-450E-B29E-7DD37B5F27E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="2686050"/>
+          <a:ext cx="2724626" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>240982</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414E93BF-ECA0-4F5B-A91F-283033B79DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="3464719"/>
+          <a:ext cx="2724626" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DC4151-7C9C-4C2F-9062-0893FCF80278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2307431" y="2676525"/>
+          <a:ext cx="1740694" cy="621506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新しいメールアドレス：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認のためもう一度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711994</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>191929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CFA128-B511-4098-B400-226B8CEE9473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="3476626"/>
+          <a:ext cx="1325404" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF9EDD6-720F-47D3-9B43-258E405462EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="4171949"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05A0A3C-256A-46F1-A507-A53E0F924675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10601325" y="5286374"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1EC45C-6586-4096-B6A0-A8322E41F454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="800100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E874A356-95B6-4BDC-836A-59CEAD14C10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="809625"/>
+          <a:ext cx="4838700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>アカウント削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5089581-E406-4F94-818C-E3CCB606B3B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E095E7D3-2495-4A78-B871-0B6DA9CAC12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4819650"/>
+          <a:ext cx="866775" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C09048F-2C6B-45A5-BA57-A90F6457EEF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5019675"/>
+          <a:ext cx="952500" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6B4EEE-1C05-47D9-ADC7-884288C4F6FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5267325"/>
+          <a:ext cx="1724025" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9633DEB6-FECF-4632-B509-430BA6DE4138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="5229225"/>
+          <a:ext cx="2571750" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5D40E6-E835-4CD9-A5FF-7B68954842BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31671C6B-FE3E-4A9E-B3CD-3D55128A1022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953751" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0FD47F-1485-4D6A-A631-A6CB231A412B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13906500" y="771523"/>
+          <a:ext cx="2057400" cy="1885951"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E10B90-355F-44F8-94CA-D6ED1DBB130E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB6F173-FC68-41C6-A4AE-E9E4937A611B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="1952625"/>
+          <a:ext cx="6225540" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1914B95-BE40-4B6C-AEEE-1DEE9CC90CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="1819275"/>
+          <a:ext cx="2324100" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>アカウント削除フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>785811</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DCF272-4F10-4CAD-9E44-0EA69D35F1F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4262436" y="3038475"/>
+          <a:ext cx="2035969" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本当に削除しますか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BC4599-206E-473C-9BA5-DFFC0255567E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="4171949"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4998,7 +8216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -5639,8 +8857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C54C75B-D93B-4B65-8FFB-8AE058137D6C}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6247,4 +9465,1155 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642EB903-0599-444D-BED6-0BDCFC01EDE7}">
+  <dimension ref="A2:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="58">
+        <v>256</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="84"/>
+    </row>
+    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="58">
+        <v>16</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="84"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="84"/>
+    </row>
+    <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+    </row>
+    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="62"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="63"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE9436-1D76-45B2-849B-36480BCEC328}">
+  <dimension ref="A2:T32"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
+    </row>
+    <row r="28" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="84"/>
+    </row>
+    <row r="29" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="84"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="84"/>
+    </row>
+    <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="62"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="63"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D5D81D-5A0A-457D-8912-050091F0ED07}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/提出物/詳細設計書【編集：伊藤明洋】.xlsx
+++ b/提出物/詳細設計書【編集：伊藤明洋】.xlsx
@@ -8,57 +8,69 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4571C56-9EEC-44CF-A5A1-2ABB3BF6298D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2815A0AF-D62F-4892-920D-B82F378B0BEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="4" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="トップページ" sheetId="1" r:id="rId2"/>
     <sheet name="アカウント作成" sheetId="3" r:id="rId3"/>
     <sheet name="メールアドレス変更" sheetId="6" r:id="rId4"/>
-    <sheet name="アカウント削除" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="パスワード変更" sheetId="7" r:id="rId5"/>
+    <sheet name="アカウント削除" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
+    <definedName name="アカウント削除" localSheetId="4">#REF!</definedName>
     <definedName name="アカウント削除" localSheetId="3">#REF!</definedName>
     <definedName name="アカウント削除">#REF!</definedName>
+    <definedName name="メールアドレス変更" localSheetId="4">#REF!</definedName>
     <definedName name="メールアドレス変更">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -71,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -592,6 +604,125 @@
     <t>changeMail.php</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半角英数字</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力チェック：未入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス
+確認用</t>
+    <rPh sb="8" eb="11">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在のパスワード</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新しいパスワード</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード
+確認用</t>
+    <rPh sb="6" eb="9">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、DB内のメールアドレスの値を新しいメールアドレスの値に更新する。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、DB内のパスワードの値を新しいパスワードの値に更新する。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード変更ページ</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>changePassword.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1047,7 +1178,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1258,6 +1389,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1291,11 +1425,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6226,6 +6360,1760 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1DF572-4DD9-4DEA-9607-EC026DAA6A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10696575" y="5286374"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51202CE-F9E9-47B3-9956-83542512B114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="800100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0959B813-67D9-4DE0-9E71-2FD2A789065F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="809625"/>
+          <a:ext cx="4933950" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>パスワード変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E935B335-1A5A-4E88-89D5-AEEBA7DBF0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D299ECB5-60EA-4440-B14F-0F93D7F34027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4819650"/>
+          <a:ext cx="866775" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A622C5-7283-4550-83DA-52F65D6CB384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5019675"/>
+          <a:ext cx="952500" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B756FDC1-11E0-469D-B3AF-27B3C3A66BB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5267325"/>
+          <a:ext cx="1724025" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC71AF2A-E295-47C8-8A62-E3ED77E15A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="5229225"/>
+          <a:ext cx="2667000" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BF1FF5-7143-41AB-AF49-CF6FFA1F4DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979E8BC8-E2EA-4565-956C-1AE31F2E4F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049001" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A418C52E-592F-4EC7-B534-88323FD9DD05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14001750" y="771523"/>
+          <a:ext cx="2057400" cy="1885951"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629AFD4D-1D48-42A2-BCA9-4FCD5E898535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12515850" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9664E6DD-70FC-4E59-AD31-3DFA8FCBC8DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1993106" y="1962150"/>
+          <a:ext cx="6354128" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F4CC03-C892-4EE1-A452-84EB8065C54B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276474" y="1819275"/>
+          <a:ext cx="2724150" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>パスワード変更フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516D872F-7FC9-4DB3-A37F-C20B8F697E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2262187" y="2871788"/>
+          <a:ext cx="1750219" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新しいパスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>212408</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92F9807-0B03-4F1B-BD64-654D029D9BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191001" y="2309812"/>
+          <a:ext cx="2819876" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>709613</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA8FC7B-93D4-44C0-9826-8FF09548E0AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4186238" y="2876550"/>
+          <a:ext cx="2819876" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>240982</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF253BA-B571-493D-A46A-894DD93DA77C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="3455194"/>
+          <a:ext cx="2803207" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834CC6D6-AFCB-409B-A30A-2386CEB6FCA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2259806" y="3343275"/>
+          <a:ext cx="1740694" cy="621506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新しいパスワード：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認のためもう一度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>664369</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8EF3AA2-1E0C-43E4-AF1F-DE0D947EA854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="2309814"/>
+          <a:ext cx="1681162" cy="345280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現在のパスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B85344-C328-41B4-B035-51058D939C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="4171949"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8196,11 +10084,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8633,14 +10521,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
@@ -8658,14 +10546,14 @@
       <c r="F28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="G28" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="78"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="59" t="s">
@@ -8683,14 +10571,14 @@
       <c r="F29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="78" t="s">
+      <c r="G29" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="60" t="s">
@@ -8708,14 +10596,14 @@
       <c r="F30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
     </row>
     <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="60" t="s">
@@ -8733,14 +10621,14 @@
       <c r="F31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="62" t="s">
@@ -8758,14 +10646,14 @@
       <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="75" t="s">
+      <c r="G32" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="61" t="s">
@@ -8783,14 +10671,14 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="78" t="s">
+      <c r="G33" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62" t="s">
@@ -8808,14 +10696,14 @@
       <c r="F34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G34" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
     </row>
     <row r="35" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="63" t="s">
@@ -8825,14 +10713,14 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8857,8 +10745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C54C75B-D93B-4B65-8FFB-8AE058137D6C}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:L33"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9271,14 +11159,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -9296,14 +11184,14 @@
       <c r="F28" s="58">
         <v>256</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
@@ -9321,14 +11209,14 @@
       <c r="F29" s="58">
         <v>16</v>
       </c>
-      <c r="G29" s="82" t="s">
+      <c r="G29" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
@@ -9346,14 +11234,14 @@
       <c r="F30" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="58" t="s">
@@ -9371,14 +11259,14 @@
       <c r="F31" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
@@ -9396,14 +11284,14 @@
       <c r="F32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
@@ -9413,14 +11301,14 @@
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
-      <c r="G33" s="75" t="s">
+      <c r="G33" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62"/>
@@ -9428,12 +11316,12 @@
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="63"/>
@@ -9441,12 +11329,12 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="77"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9471,15 +11359,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642EB903-0599-444D-BED6-0BDCFC01EDE7}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="12" max="12" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9885,14 +11773,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -9910,131 +11798,119 @@
       <c r="F28" s="58">
         <v>256</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="69" t="s">
-        <v>36</v>
+      <c r="B29" s="61" t="s">
+        <v>76</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="58" t="s">
-        <v>39</v>
+      <c r="E29" s="68" t="s">
+        <v>35</v>
       </c>
       <c r="F29" s="58">
-        <v>16</v>
-      </c>
-      <c r="G29" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
+        <v>256</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
+        <v>74</v>
+      </c>
+      <c r="F30" s="58">
+        <v>16</v>
+      </c>
+      <c r="G30" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="58" t="s">
-        <v>56</v>
+      <c r="B31" s="70" t="s">
+        <v>80</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="F31" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+        <v>82</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+        <v>32</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="70" t="s">
-        <v>32</v>
-      </c>
+      <c r="B33" s="70"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
-      <c r="G33" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62"/>
@@ -10042,12 +11918,12 @@
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="63"/>
@@ -10055,12 +11931,12 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="77"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10082,6 +11958,608 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B64609-01D6-4883-AD6D-5B54F4C45716}">
+  <dimension ref="A2:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="58">
+        <v>16</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
+    </row>
+    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="58">
+        <v>16</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="58">
+        <v>16</v>
+      </c>
+      <c r="G30" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="85"/>
+    </row>
+    <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
+    </row>
+    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="70"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="62"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="63"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE9436-1D76-45B2-849B-36480BCEC328}">
   <dimension ref="A2:T32"/>
   <sheetViews>
@@ -10499,17 +12977,17 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
     </row>
     <row r="28" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="74" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="58" t="s">
@@ -10527,11 +13005,11 @@
       <c r="G28" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
@@ -10541,14 +13019,14 @@
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
-      <c r="G29" s="82" t="s">
+      <c r="G29" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58"/>
@@ -10556,12 +13034,12 @@
       <c r="D30" s="58"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="62"/>
@@ -10569,12 +13047,12 @@
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="63"/>
@@ -10582,12 +13060,12 @@
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10605,7 +13083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D5D81D-5A0A-457D-8912-050091F0ED07}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/提出物/詳細設計書【編集：伊藤明洋】.xlsx
+++ b/提出物/詳細設計書【編集：伊藤明洋】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2815A0AF-D62F-4892-920D-B82F378B0BEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854EC2D5-92B3-4273-A3EB-CC72004A0CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="4" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="1" activeTab="7" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -18,59 +18,83 @@
     <sheet name="アカウント作成" sheetId="3" r:id="rId3"/>
     <sheet name="メールアドレス変更" sheetId="6" r:id="rId4"/>
     <sheet name="パスワード変更" sheetId="7" r:id="rId5"/>
-    <sheet name="アカウント削除" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="プロフィール情報変更" sheetId="8" r:id="rId6"/>
+    <sheet name="アカウント削除" sheetId="5" r:id="rId7"/>
+    <sheet name="マイページ" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
     <definedName name="アカウント削除" localSheetId="4">#REF!</definedName>
+    <definedName name="アカウント削除" localSheetId="5">#REF!</definedName>
+    <definedName name="アカウント削除" localSheetId="7">#REF!</definedName>
     <definedName name="アカウント削除" localSheetId="3">#REF!</definedName>
     <definedName name="アカウント削除">#REF!</definedName>
     <definedName name="メールアドレス変更" localSheetId="4">#REF!</definedName>
+    <definedName name="メールアドレス変更" localSheetId="5">#REF!</definedName>
+    <definedName name="メールアドレス変更" localSheetId="7">#REF!</definedName>
     <definedName name="メールアドレス変更">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -83,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="108">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -437,10 +461,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ナビゲーションバー、ヘッダー、フッターはトップページシート参照。</t>
     <rPh sb="29" eb="31">
       <t>サンショウ</t>
@@ -573,23 +593,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ボタン押下時、ログインしているユーザーのユーザー情報を
-DBから削除し、トップページへ遷移する。</t>
-    <rPh sb="3" eb="6">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ナビゲーションバー、ヘッダー、フッターはトップページシート参照。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -675,44 +678,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ボタン押下時、DB内のメールアドレスの値を新しいメールアドレスの値に更新する。</t>
-    <rPh sb="3" eb="6">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ボタン押下時、DB内のパスワードの値を新しいパスワードの値に更新する。</t>
-    <rPh sb="3" eb="6">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>パスワード変更ページ</t>
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
@@ -721,6 +686,244 @@
   </si>
   <si>
     <t>changePassword.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフィール情報変更ページ</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>changeProfile.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、パスワードをDBのパスワードと照合し、同じならDB内のメールアドレスの値を新しいメールアドレスの値に更新する。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラー
+メッセージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力エラー、またはパスワードが違う場合に表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アラート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更に成功すれば表示させ、OKでマイページへ遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、パスワードをDBのパスワードと照合し、同じならDB内の名前の値と性別の値を入力された名前と選択された性別の値に更新する。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、現在のパスワードをDBのパスワードと照合し、また、新しいパスワードと確認用のパスワードが同じならDB内のパスワードの値を新しいパスワードの値に更新する。</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アラート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、確認のアラートを表示させる。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力エラーの場合に表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作成に成功すれば表示させ、OKでトップページへ遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、確認のアラートを表示させ、
+「はい」ならログインしているユーザーのユーザー情報をDBから削除し、
+成功のアラートを表示させOKでトップページへ遷移する。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TOPへ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、トップページ画面へ遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイページへ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、マイページ画面へ遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイページページ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>myPage.php</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1392,6 +1595,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1427,9 +1633,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4602,6 +4805,97 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>202407</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFA69FB-DAAD-4616-A1EA-C3A2DEDC6AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8977313" y="4500563"/>
+          <a:ext cx="864393" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6356,6 +6650,89 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30955</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D96A46-AF35-45FB-B4BB-0A643FF849D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929687" y="4500562"/>
+          <a:ext cx="1031081" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マイページへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8110,10 +8487,3367 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>876299</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC30194-90E7-4C8D-B656-18D608F6F8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8965406" y="4500563"/>
+          <a:ext cx="1031081" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マイページへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>226217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C22856D-E860-48F3-A7AA-D6D14A16A403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11013281" y="1940717"/>
+          <a:ext cx="2416969" cy="2024063"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214314</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E8C08A-E4D1-400D-8A6C-D732C30F7856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11084720" y="1845468"/>
+          <a:ext cx="1166812" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>パスワード変更フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EE6824-FA46-4579-AA37-0D8DAB8AD6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977563" y="2274093"/>
+          <a:ext cx="1262062" cy="357188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>現在のパスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DE879F-1FFE-4832-8CD3-5A383C78B98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11001375" y="2643186"/>
+          <a:ext cx="1202531" cy="250032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>新しいパスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1DEB81-2722-434E-98DF-9D56CBAC4F52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10989470" y="2917029"/>
+          <a:ext cx="1202530" cy="488157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>新しいパスワード：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>確認のためもう一度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F216F398-CBBE-4AD2-A134-E5271CE9E584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12346782" y="2309812"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5250EA7-3005-461A-89FD-AB540E0C4686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12382500" y="2643187"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE4E992-E3E0-496B-AAC0-9E67B1D5FE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12394406" y="2940843"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254794</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CC50F8-2AF5-4C90-8644-35DF6588FB0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12001500" y="3512342"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673893</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CF8135-D2CC-49C1-B8FE-55765A383DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12584906" y="4143375"/>
+          <a:ext cx="1031081" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マイページへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1057717A-6CBF-4580-8A4C-9C0A140EFD1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="5286374"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D974A7B7-50F4-435F-8D69-D63717E93923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="1047750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813839FB-30F2-4749-A8C7-4F439FD16C80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="809625"/>
+          <a:ext cx="4933950" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>プロフィール情報変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A7C584-436E-4621-A126-0CE803B55CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD3649F-D0E7-4ED9-B8EA-47D474418F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4819650"/>
+          <a:ext cx="1114425" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F402F30A-7E70-4FB2-B6CF-E9D242499A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5019675"/>
+          <a:ext cx="1200150" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C7AE53-EA01-4DFE-B88D-F3F44EAB210A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5267325"/>
+          <a:ext cx="1971675" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AC70C7-FA50-4076-B8B7-4B5EEACC9783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="5229225"/>
+          <a:ext cx="2667000" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264E050F-54A5-4FC0-8053-6C2D6A6CECBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0617E1A8-9628-4BE6-A091-66F9A1EF15C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296651" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0F4E6A-4F62-4F21-808A-7C1F6E21728B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="771523"/>
+          <a:ext cx="2057400" cy="1885951"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D100247F-D57F-4B0C-AC04-367E30D7573F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12763500" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9A2092-DF60-452D-9CF1-046F8CFFFA0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="1952625"/>
+          <a:ext cx="6320790" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD1B1DC-71ED-4A46-BE3E-7DC0BA009501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524124" y="1819275"/>
+          <a:ext cx="2724150" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>プロフィール情報変更フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>164783</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEFDF65-1BC7-4D67-9BDE-05F61AF1615A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4393407" y="2357437"/>
+          <a:ext cx="2819876" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>659606</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157638</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E372D2-E9D5-4429-861E-A9BF11B26799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4386262" y="3464719"/>
+          <a:ext cx="2819876" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C09CFE-788E-490F-8152-34140D76F732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486026" y="3426619"/>
+          <a:ext cx="1740693" cy="383381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>664369</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F78EAA-1C72-49CE-8A34-1604E66A382F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545557" y="2309814"/>
+          <a:ext cx="1323973" cy="345280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お名前：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCD91C1-895E-454D-8579-7E53115B2AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="4171949"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146686</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C17B382-0C81-43F7-8A48-C01695033B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2547938" y="2869406"/>
+          <a:ext cx="1325404" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>性別：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>726281</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129063</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF93F4D-67EC-4F30-96BF-701959B795C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4452937" y="2833688"/>
+          <a:ext cx="2724626" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇男　〇女　〇その他</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1293018</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6FDE6-F26D-4246-8F31-6E685C94597A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="4500563"/>
+          <a:ext cx="1031081" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マイページへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202407</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>547689</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D809C02-C72A-4CC1-8C98-826C8D78630A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11477626" y="1666875"/>
+          <a:ext cx="2416969" cy="2024063"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FFD6B5-3C1A-4BC6-A513-62B0638B3570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11418094" y="1726406"/>
+          <a:ext cx="1857375" cy="273844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>プロフィール情報変更フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44513B9-33A7-4965-82EE-ABCC9AEC4E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11513344" y="2155031"/>
+          <a:ext cx="809625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>お名前：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C36C7A-81DD-4075-A16F-F31136A11704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11537158" y="2536032"/>
+          <a:ext cx="619124" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>性別：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>226220</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>345283</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437B5DC8-498A-47F6-8AE7-37589CB648DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11501439" y="2928938"/>
+          <a:ext cx="809625" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631032</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>197642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897DE237-F2CC-4350-AE3B-308988FCC40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12596813" y="2178843"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3617DE91-3962-4A8D-AB68-9507E9608FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12594432" y="2997994"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B20C17A-32EA-43C2-B66A-70AE5ABA5A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12227720" y="2536030"/>
+          <a:ext cx="1619249" cy="345281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇男　〇女　〇その他</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70A7DCF-D5A7-4247-AE10-4133785A3E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12322969" y="3262312"/>
+          <a:ext cx="547686" cy="404812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>578644</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>230982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D0D60E-6B38-4E44-8D21-EB5316E98100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12894469" y="3869531"/>
+          <a:ext cx="1031081" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マイページへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9354,15 +13088,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>785811</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>1035843</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>215265</xdr:rowOff>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9377,8 +13111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4262436" y="3038475"/>
-          <a:ext cx="2035969" cy="320040"/>
+          <a:off x="4512468" y="823912"/>
+          <a:ext cx="1809751" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9408,9 +13142,26 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（アラート）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>本当に削除しますか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>はい　　　いいえ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9420,15 +13171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9443,7 +13194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="4171949"/>
+          <a:off x="4869656" y="3324224"/>
           <a:ext cx="504825" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9489,6 +13240,1816 @@
             </a:rPr>
             <a:t>削除</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F57DD66-50FA-4EBE-B451-21B347896679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10834688" y="1952625"/>
+          <a:ext cx="2393156" cy="1273969"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>202405</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23770727-D11D-421E-A4BB-F60EEFC02DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11715750" y="2405063"/>
+          <a:ext cx="523874" cy="369094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB84D85-4A04-4EFC-989B-7CA3299FFB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11322844" y="1333500"/>
+          <a:ext cx="1381124" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>（アラート）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>本当に削除しますか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>はい　　　いいえ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>135732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388517E3-E3C6-4171-9719-0CF2C6070055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929688" y="4488656"/>
+          <a:ext cx="864393" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8350F5E3-9B2B-4B9B-904C-115EF84C623B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12739688" y="3381375"/>
+          <a:ext cx="864393" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E76213-B1D3-4A59-A23A-B974C05110F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10727531" y="1964531"/>
+          <a:ext cx="1404937" cy="250031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>アカウント削除フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619EBFF6-CF58-4633-9D1C-57FF45745A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10601325" y="5286374"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF068589-E6F9-4FFB-AD35-A733CA41C218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="800100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1D04C4-06B7-4C0A-9F47-862DD4F84324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="809625"/>
+          <a:ext cx="4838700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84060FFC-9393-4347-B306-C136FAED4FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811F1FC9-CD34-41B1-9309-41C8CCFD2878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4819650"/>
+          <a:ext cx="866775" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF363C25-DFE0-4F5B-BA62-86E1ED856F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5019675"/>
+          <a:ext cx="952500" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806A82D2-A709-4527-A429-7BF69777E5FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5267325"/>
+          <a:ext cx="1724025" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A263DEC-3E8C-41FC-825F-0A702B66AC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="5229225"/>
+          <a:ext cx="2571750" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538FD49D-8CA8-4564-956F-6B5EF3D44440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBE8B75-17E2-4DFA-A456-9E4E1323A382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953751" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3364C5E4-C4E0-4BDC-AF0A-02910A76C3C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13906500" y="771523"/>
+          <a:ext cx="2057400" cy="1885951"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB9642F-45F0-48D4-9F69-877648DE3A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>319086</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>703897</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D61B1E-2823-4302-BF21-633AEB0CE3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009649" y="3605213"/>
+          <a:ext cx="1325404" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>664370</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>845345</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BA4E76-51A7-4DAE-B0A3-D51CE78BFCDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058151" y="1774032"/>
+          <a:ext cx="1562100" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>〇〇さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>202407</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EED64C3-27AA-4D66-B227-1B21B4EA9D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8936832" y="4491038"/>
+          <a:ext cx="862011" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10084,11 +15645,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10105,7 +15666,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10521,14 +16082,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
@@ -10546,14 +16107,14 @@
       <c r="F28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="79"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="59" t="s">
@@ -10571,14 +16132,14 @@
       <c r="F29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="79" t="s">
+      <c r="G29" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="79"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="60" t="s">
@@ -10596,14 +16157,14 @@
       <c r="F30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
     </row>
     <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="60" t="s">
@@ -10621,14 +16182,14 @@
       <c r="F31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="76" t="s">
+      <c r="G31" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="32" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="62" t="s">
@@ -10646,14 +16207,14 @@
       <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="76" t="s">
+      <c r="G32" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="61" t="s">
@@ -10671,14 +16232,14 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="79" t="s">
+      <c r="G33" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62" t="s">
@@ -10696,14 +16257,14 @@
       <c r="F34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="79" t="s">
+      <c r="G34" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="63" t="s">
@@ -10713,14 +16274,14 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10743,10 +16304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C54C75B-D93B-4B65-8FFB-8AE058137D6C}">
-  <dimension ref="A2:T35"/>
+  <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:L32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10760,11 +16321,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -11159,14 +16720,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -11184,14 +16745,14 @@
       <c r="F28" s="58">
         <v>256</v>
       </c>
-      <c r="G28" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
+      <c r="G28" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
@@ -11209,64 +16770,64 @@
       <c r="F29" s="58">
         <v>16</v>
       </c>
-      <c r="G29" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
+      <c r="G29" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="58" t="s">
-        <v>55</v>
-      </c>
       <c r="D30" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="F30" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="85"/>
+      <c r="G30" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="D31" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="58" t="s">
-        <v>58</v>
-      </c>
       <c r="E31" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
+        <v>59</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
@@ -11284,62 +16845,111 @@
       <c r="F32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
+      <c r="G32" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
-    </row>
-    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="62"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-    </row>
-    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
@@ -11347,6 +16957,7 @@
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G35:L35"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11359,8 +16970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642EB903-0599-444D-BED6-0BDCFC01EDE7}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:L31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11374,11 +16985,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -11773,14 +17384,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -11798,18 +17409,18 @@
       <c r="F28" s="58">
         <v>256</v>
       </c>
-      <c r="G28" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
+      <c r="G28" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>34</v>
@@ -11823,120 +17434,156 @@
       <c r="F29" s="58">
         <v>256</v>
       </c>
-      <c r="G29" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
+      <c r="G29" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="58">
         <v>16</v>
       </c>
-      <c r="G30" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="85"/>
-    </row>
-    <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>82</v>
-      </c>
       <c r="F31" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
+        <v>80</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+    </row>
+    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
-    </row>
-    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="70"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
-    </row>
-    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="62"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-    </row>
-    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78"/>
+      <c r="G35" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11961,8 +17608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B64609-01D6-4883-AD6D-5B54F4C45716}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11976,11 +17623,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -12375,170 +18022,206 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>74</v>
       </c>
       <c r="F28" s="58">
         <v>16</v>
       </c>
-      <c r="G28" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
+      <c r="G28" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>74</v>
       </c>
       <c r="F29" s="58">
         <v>16</v>
       </c>
-      <c r="G29" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
+      <c r="G29" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="87" t="s">
-        <v>79</v>
+      <c r="B30" s="75" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="58">
         <v>16</v>
       </c>
-      <c r="G30" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="85"/>
-    </row>
-    <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="2:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>82</v>
-      </c>
       <c r="F31" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
+        <v>80</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+    </row>
+    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
-    </row>
-    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="70"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
-    </row>
-    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="62"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-    </row>
-    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78"/>
+      <c r="G35" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12560,29 +18243,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE9436-1D76-45B2-849B-36480BCEC328}">
-  <dimension ref="A2:T32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA554345-8FEC-4C07-8096-500C15490449}">
+  <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -12977,18 +18660,656 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="82"/>
-    </row>
-    <row r="28" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="58">
+        <v>16</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
+    </row>
+    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="58">
+        <v>16</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="58">
+        <v>16</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+    </row>
+    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE9436-1D76-45B2-849B-36480BCEC328}">
+  <dimension ref="A2:T32"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+    </row>
+    <row r="28" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>41</v>
@@ -13002,57 +19323,81 @@
       <c r="F28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
-    </row>
-    <row r="29" spans="2:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
+    </row>
+    <row r="29" spans="2:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
-    </row>
-    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="85"/>
-    </row>
-    <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="62"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
+      <c r="G31" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="63"/>
@@ -13060,12 +19405,12 @@
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13083,7 +19428,671 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD52BF-AF0D-456A-B882-385AE863DDBE}">
+  <dimension ref="A2:T36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="58">
+        <v>256</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
+    </row>
+    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="58">
+        <v>16</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+    </row>
+    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D5D81D-5A0A-457D-8912-050091F0ED07}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/提出物/詳細設計書【編集：伊藤明洋】.xlsx
+++ b/提出物/詳細設計書【編集：伊藤明洋】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854EC2D5-92B3-4273-A3EB-CC72004A0CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA4DA7C-5A34-470B-8BC4-C6F4518C3635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="1" activeTab="7" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="143">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -346,13 +346,6 @@
     <t>半角英数字</t>
     <rPh sb="0" eb="5">
       <t>ハンカクエイスウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>送信</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -871,30 +864,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ボタン押下時、確認のアラートを表示させ、
-「はい」ならログインしているユーザーのユーザー情報をDBから削除し、
-成功のアラートを表示させOKでトップページへ遷移する。</t>
-    <rPh sb="3" eb="6">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TOPへ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -926,12 +895,283 @@
     <t>myPage.php</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ショップ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カスタム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント設定</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイル記入</t>
+    <rPh sb="3" eb="5">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラー
+メッセージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力エラー場合に表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ポイント数</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイレージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>階級一覧</t>
+    <rPh sb="0" eb="4">
+      <t>カイキュウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン押下時、確認のアラートを表示させ、
+「OK」ならログインしているユーザーのユーザー情報をDBから削除し、
+成功のアラートを表示させOKでトップページへ遷移する。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>階級一覧をプルダウン形式で表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>カイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、トップページ画面へ遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、ランキング画面へ遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、ショップ画面へ遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、カスタム画面へ遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、アカウント設定画面へ遷移する。</t>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCスマホ共にリンク選択時、ログアウト処理をしてトップページへ遷移する。</t>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>記入された数値をDB内に保存する。</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力チェック：形式チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブルから取得した名前を表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブルから取得したポイント数を表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブルから取得したマイレージを表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイル数に応じて階級を表示する。</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイキュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,6 +1303,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1381,7 +1629,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1634,6 +1882,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="見出し 1 2" xfId="2" xr:uid="{49FEC98C-FF9C-4DB5-B9BB-F4700F30535B}"/>
@@ -2927,6 +3178,69 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形: 角を丸くする 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6D4430-7B0E-4474-9744-9D0D0626C4B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="1619250"/>
+          <a:ext cx="2416969" cy="3024187"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -4798,7 +5112,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>送信</a:t>
+            <a:t>作成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4891,6 +5205,718 @@
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226217</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DBAFBE-4D8C-4473-9FD9-85CF6EB018C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10691811" y="1535906"/>
+          <a:ext cx="2131219" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント作成フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E25637-E44B-4E25-9871-15CE57B3A0A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10691812" y="2202657"/>
+          <a:ext cx="1023938" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>メールアドレス：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10070E1-4764-4AAD-A696-AB50E40464D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715624" y="3059906"/>
+          <a:ext cx="1000125" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>お名前：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>188119</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C34F18-2AA8-4DD9-9120-3256553732B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10713244" y="2652713"/>
+          <a:ext cx="1002506" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>226220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416A18AB-4D55-4AAD-B3A2-2AC489DDD4E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10739438" y="3548063"/>
+          <a:ext cx="904874" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>性別：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>202407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D47BA8E-40E1-42A4-80E1-02A5748D0BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11965781" y="3107532"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45243</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>116680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>230981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93828D2-9094-4428-80AE-A2565A2011FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11951493" y="2688432"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30956</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>102393</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240B2A84-6CF2-429F-BE91-2538F38CA341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11937206" y="2257425"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCE96AE-A500-45C3-825D-FFA1182D18C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11691938" y="3548064"/>
+          <a:ext cx="1333499" cy="309561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇男　〇女　〇その他</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C458E3-AF18-43C3-978B-A59B1268EB85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11572875" y="4095750"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6733,6 +7759,643 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D81965-9613-410E-A7FF-2AA7835C8810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10763251" y="1809750"/>
+          <a:ext cx="2416969" cy="2536031"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888BD07E-2E8B-4AC9-92FF-61A3E503D2AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798968" y="1809750"/>
+          <a:ext cx="1762126" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>メールアドレス変更フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB693DA4-9F76-4959-99CF-7216B2067378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10787063" y="2190750"/>
+          <a:ext cx="1357312" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>新しいメールアドレス：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE409D-8892-40C7-8881-3D732BB3607D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="2238374"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C77C55-36CD-4A5C-B18D-940F752B41AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10748962" y="2533650"/>
+          <a:ext cx="1335881" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>新しいメールアドレス：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>（確認のためもう一度）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2B542A-5AB0-48AC-8A75-7B1719CE0455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144376" y="2714625"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>178595</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA7DFD4C-B55D-4B8A-A4F3-F9921BE5AE8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12180095" y="3190875"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E587A7E-D2B9-4730-AAFA-BE05DE685899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10870407" y="3238500"/>
+          <a:ext cx="976312" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392907</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>207170</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF6CCA9-2AAC-4EA0-A73D-5A4261F21CC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11703845" y="3643312"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8636,13 +10299,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>214314</xdr:colOff>
+      <xdr:colOff>214313</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>452437</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>202406</xdr:rowOff>
     </xdr:to>
@@ -8659,8 +10322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11084720" y="1845468"/>
-          <a:ext cx="1166812" cy="309563"/>
+          <a:off x="11084719" y="1845468"/>
+          <a:ext cx="1619249" cy="309563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8695,7 +10358,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>パスワード変更フォーム</a:t>
           </a:r>
         </a:p>
@@ -8714,7 +10377,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>678656</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>202406</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8730,7 +10393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10977563" y="2274093"/>
-          <a:ext cx="1262062" cy="357188"/>
+          <a:ext cx="1262062" cy="297657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13727,6 +15390,69 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>654842</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E916D57-3397-4F2E-9647-20585A597D35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7012781" y="1833562"/>
+          <a:ext cx="2416967" cy="2869407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -14831,15 +16557,78 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>319086</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>223838</xdr:rowOff>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>703897</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2346D24C-046C-4F0A-ACC8-235A3BDBB2A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1214439" y="1797843"/>
+          <a:ext cx="2416967" cy="2869407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640553</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>67628</xdr:rowOff>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14854,8 +16643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1009649" y="3605213"/>
-          <a:ext cx="1325404" cy="320040"/>
+          <a:off x="1331116" y="2402680"/>
+          <a:ext cx="1907384" cy="1585913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14890,8 +16679,56 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>パスワード：</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>トップページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>ショップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>カスタム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>アカウント設定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14901,15 +16738,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>664370</xdr:colOff>
+      <xdr:colOff>69057</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>845345</xdr:colOff>
+      <xdr:colOff>250032</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14924,8 +16761,78 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8058151" y="1774032"/>
+          <a:off x="7462838" y="1762126"/>
           <a:ext cx="1562100" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>〇〇さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10959928-6B10-4D51-BE6E-C1421475A79E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7167562" y="2405061"/>
+          <a:ext cx="1845469" cy="797720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14956,9 +16863,27 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>〇〇さん</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・〇〇ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>km</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14966,23 +16891,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>202407</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273847</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7143</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147639</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EED64C3-27AA-4D66-B227-1B21B4EA9D3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D8D46E-E9DA-4BE9-972D-7FE11ABF85BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14990,15 +16915,21 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8936832" y="4491038"/>
-          <a:ext cx="862011" cy="219076"/>
+          <a:off x="1905003" y="1821654"/>
+          <a:ext cx="1154904" cy="476252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -15020,36 +16951,2203 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>MENU</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223834</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03A2E7A-F125-44DD-A7F4-5B6F1F7D21E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1854990" y="4164804"/>
+          <a:ext cx="978696" cy="359571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488154</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9DDD69-0614-4E40-BB01-A7458B008075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083843" y="1797843"/>
+          <a:ext cx="2416967" cy="2869407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A0ABA8-172E-4B6C-A998-BFF433128B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7227093" y="3131344"/>
+          <a:ext cx="1988344" cy="1500187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●階級一覧（プルダウン）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　→　〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425D0407-77AB-4206-8897-597B656D6DD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="1750219"/>
+          <a:ext cx="1547812" cy="511968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>入力フォーム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>678655</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F6B552-B156-44D0-B3B9-2D82F0651D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4155280" y="2405062"/>
+          <a:ext cx="1964531" cy="273844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今日のマイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642939</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13C64EA-58AE-48DD-A54B-12900958669B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238624" y="2762249"/>
+          <a:ext cx="1035846" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>へ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+            <a:t>マイル記入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A38DD27-DF1A-468D-87E2-A51A0AB8D121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5560220" y="2809874"/>
+          <a:ext cx="452438" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>km</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58C1D58-4F55-41BD-B47D-1D3480BDB59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5298280" y="2893219"/>
+          <a:ext cx="238125" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>▼</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1223E4D-E4CD-4C62-A214-A5868C8BD57A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5298281" y="2714624"/>
+          <a:ext cx="238125" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>▲</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E393DC-D226-4A30-ADFD-8779E2939EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5012531" y="3345656"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形: 角を丸くする 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C90875-2945-4663-ACF9-F966A760AAF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10679906" y="1524000"/>
+          <a:ext cx="2416967" cy="2869407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>73818</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A064CF-65DA-41C5-A72E-76ADB4C9E778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11108531" y="1524000"/>
+          <a:ext cx="1562100" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>〇〇さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F4A194-2E5D-4ED9-A6FE-F9E8CDEC47DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11025188" y="2143125"/>
+          <a:ext cx="1404937" cy="797720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・〇〇ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>km</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C4F9DC-7A78-4C8E-B71B-09A2D767D898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="2833687"/>
+          <a:ext cx="1845469" cy="1500187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●階級一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　→　〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　〇〇級</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="四角形: 角を丸くする 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E8A095-050D-4578-9128-DEC1DB982255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10679906" y="4512469"/>
+          <a:ext cx="2416967" cy="1881187"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D62555E-DD47-43E5-8346-7ABFB1E269B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11072813" y="4452938"/>
+          <a:ext cx="1547812" cy="511968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>入力フォーム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0CDC18-AEDA-4144-8BBA-348DD65B45FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10703719" y="5060156"/>
+          <a:ext cx="1964531" cy="273844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今日のマイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>607222</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62805745-EECD-4F10-8C96-26AA9088256F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10787064" y="5453063"/>
+          <a:ext cx="1035846" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>number</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD94783-A306-45F6-8775-A0433238BE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858626" y="5572126"/>
+          <a:ext cx="238125" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>▼</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5271BDB5-6D32-4C03-AC95-34C186990062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="5357813"/>
+          <a:ext cx="238125" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>▲</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDAD241-2F77-40B4-A664-CAB8BB61951A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12287251" y="5453062"/>
+          <a:ext cx="452438" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>km</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>183356</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>221456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C2C033-08D8-4D82-B44E-4637C3C73CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11584781" y="5869781"/>
+          <a:ext cx="504825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>452438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="四角形: 角を丸くする 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F48B111-2AF4-4A70-B0CF-46761F758088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10679907" y="6441281"/>
+          <a:ext cx="2416967" cy="2869407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF57063E-B13F-4E06-B48C-7DC5393933C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11322844" y="6465093"/>
+          <a:ext cx="1154904" cy="476252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>MENU</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>369095</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>204791</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB42B06-D239-4BE2-A39B-D0661986E635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10894220" y="7024687"/>
+          <a:ext cx="1907384" cy="1585913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>トップページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>ショップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>カスタム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>▶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:t>アカウント設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>202407</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>490541</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>240508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EF9C91-CCD2-4DB9-ADD9-6EF725FB8A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11418095" y="8739187"/>
+          <a:ext cx="978696" cy="359571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" u="sng">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16133,7 +20231,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29" s="78"/>
       <c r="I29" s="78"/>
@@ -16183,7 +20281,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
@@ -16208,7 +20306,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78"/>
@@ -16233,7 +20331,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
@@ -16258,7 +20356,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
@@ -16275,7 +20373,7 @@
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" s="78"/>
       <c r="I35" s="78"/>
@@ -16306,8 +20404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C54C75B-D93B-4B65-8FFB-8AE058137D6C}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16321,11 +20419,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -16746,7 +20844,7 @@
         <v>256</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
@@ -16771,7 +20869,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="85"/>
@@ -16781,22 +20879,22 @@
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="58" t="s">
-        <v>54</v>
-      </c>
       <c r="D30" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="F30" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="58" t="s">
-        <v>59</v>
-      </c>
       <c r="G30" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="85"/>
       <c r="I30" s="85"/>
@@ -16806,22 +20904,22 @@
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="D31" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="58" t="s">
-        <v>57</v>
-      </c>
       <c r="E31" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
@@ -16831,22 +20929,22 @@
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="D32" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="E32" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="58" t="s">
-        <v>43</v>
-      </c>
       <c r="F32" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78"/>
@@ -16856,13 +20954,13 @@
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>23</v>
@@ -16871,7 +20969,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
@@ -16881,13 +20979,13 @@
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="58" t="s">
         <v>23</v>
@@ -16896,7 +20994,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
@@ -16906,22 +21004,22 @@
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="E35" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="84" t="s">
         <v>101</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="84" t="s">
-        <v>103</v>
       </c>
       <c r="H35" s="85"/>
       <c r="I35" s="85"/>
@@ -16938,7 +21036,7 @@
       <c r="E36" s="58"/>
       <c r="F36" s="58"/>
       <c r="G36" s="77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" s="78"/>
       <c r="I36" s="78"/>
@@ -16971,7 +21069,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16985,11 +21083,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -17410,7 +21508,7 @@
         <v>256</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
@@ -17420,7 +21518,7 @@
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>34</v>
@@ -17435,7 +21533,7 @@
         <v>256</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="85"/>
@@ -17448,19 +21546,19 @@
         <v>36</v>
       </c>
       <c r="C30" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="E30" s="58" t="s">
         <v>71</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>72</v>
       </c>
       <c r="F30" s="58">
         <v>16</v>
       </c>
       <c r="G30" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="85"/>
       <c r="I30" s="85"/>
@@ -17470,22 +21568,22 @@
     </row>
     <row r="31" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="D31" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>80</v>
-      </c>
       <c r="F31" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
@@ -17495,13 +21593,13 @@
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>23</v>
@@ -17510,7 +21608,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78"/>
@@ -17520,13 +21618,13 @@
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>23</v>
@@ -17535,7 +21633,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
@@ -17545,22 +21643,22 @@
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H34" s="85"/>
       <c r="I34" s="85"/>
@@ -17577,7 +21675,7 @@
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="85"/>
       <c r="I35" s="85"/>
@@ -17608,8 +21706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B64609-01D6-4883-AD6D-5B54F4C45716}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17623,11 +21721,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -18033,22 +22131,22 @@
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="E28" s="58" t="s">
         <v>71</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>72</v>
       </c>
       <c r="F28" s="58">
         <v>16</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
@@ -18058,22 +22156,22 @@
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="E29" s="58" t="s">
         <v>71</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>72</v>
       </c>
       <c r="F29" s="58">
         <v>16</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="85"/>
@@ -18083,22 +22181,22 @@
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="E30" s="58" t="s">
         <v>71</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>72</v>
       </c>
       <c r="F30" s="58">
         <v>16</v>
       </c>
       <c r="G30" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="85"/>
       <c r="I30" s="85"/>
@@ -18108,22 +22206,22 @@
     </row>
     <row r="31" spans="2:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="D31" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>80</v>
-      </c>
       <c r="F31" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
@@ -18133,13 +22231,13 @@
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>23</v>
@@ -18148,7 +22246,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78"/>
@@ -18158,13 +22256,13 @@
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>23</v>
@@ -18173,7 +22271,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
@@ -18183,22 +22281,22 @@
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H34" s="85"/>
       <c r="I34" s="85"/>
@@ -18215,7 +22313,7 @@
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="85"/>
       <c r="I35" s="85"/>
@@ -18247,7 +22345,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="G35" sqref="G35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18261,11 +22359,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -18671,7 +22769,7 @@
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>37</v>
@@ -18686,7 +22784,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
@@ -18696,7 +22794,7 @@
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>37</v>
@@ -18711,7 +22809,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="85"/>
@@ -18721,7 +22819,7 @@
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="58" t="s">
         <v>37</v>
@@ -18736,7 +22834,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="85"/>
       <c r="I30" s="85"/>
@@ -18746,10 +22844,10 @@
     </row>
     <row r="31" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>22</v>
@@ -18761,7 +22859,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
@@ -18771,13 +22869,13 @@
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>23</v>
@@ -18786,7 +22884,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78"/>
@@ -18796,13 +22894,13 @@
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>23</v>
@@ -18811,7 +22909,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
@@ -18821,22 +22919,22 @@
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H34" s="85"/>
       <c r="I34" s="85"/>
@@ -18853,7 +22951,7 @@
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="85"/>
       <c r="I35" s="85"/>
@@ -18885,7 +22983,7 @@
   <dimension ref="A2:T32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="G32" sqref="G32:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18899,11 +22997,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -19309,10 +23407,10 @@
     </row>
     <row r="28" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>22</v>
@@ -19324,7 +23422,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
@@ -19334,22 +23432,22 @@
     </row>
     <row r="29" spans="2:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="D29" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="58" t="s">
-        <v>95</v>
-      </c>
       <c r="E29" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="85"/>
@@ -19359,22 +23457,22 @@
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="E30" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="84" t="s">
         <v>101</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>103</v>
       </c>
       <c r="H30" s="85"/>
       <c r="I30" s="85"/>
@@ -19391,7 +23489,7 @@
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
       <c r="G31" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="85"/>
       <c r="I31" s="85"/>
@@ -19430,10 +23528,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD52BF-AF0D-456A-B882-385AE863DDBE}">
-  <dimension ref="A2:T36"/>
+  <dimension ref="A2:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19447,11 +23545,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -19855,24 +23953,24 @@
       <c r="K27" s="82"/>
       <c r="L27" s="83"/>
     </row>
-    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="58">
-        <v>256</v>
+        <v>121</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>121</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
@@ -19880,24 +23978,24 @@
       <c r="K28" s="85"/>
       <c r="L28" s="86"/>
     </row>
-    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="58">
-        <v>16</v>
+        <v>121</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>121</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="85"/>
@@ -19905,24 +24003,24 @@
       <c r="K29" s="85"/>
       <c r="L29" s="86"/>
     </row>
-    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="F30" s="58" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="G30" s="84" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H30" s="85"/>
       <c r="I30" s="85"/>
@@ -19930,24 +24028,24 @@
       <c r="K30" s="85"/>
       <c r="L30" s="86"/>
     </row>
-    <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="58" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="F31" s="58" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
@@ -19955,24 +24053,24 @@
       <c r="K31" s="78"/>
       <c r="L31" s="79"/>
     </row>
-    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="70" t="s">
-        <v>40</v>
+    <row r="32" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="88" t="s">
+        <v>110</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78"/>
@@ -19980,24 +24078,24 @@
       <c r="K32" s="78"/>
       <c r="L32" s="79"/>
     </row>
-    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="F33" s="58" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
@@ -20005,24 +24103,20 @@
       <c r="K33" s="78"/>
       <c r="L33" s="79"/>
     </row>
-    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="70" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>23</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="77" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
@@ -20030,24 +24124,24 @@
       <c r="K34" s="78"/>
       <c r="L34" s="79"/>
     </row>
-    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="69" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F35" s="58" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="G35" s="84" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="H35" s="85"/>
       <c r="I35" s="85"/>
@@ -20055,16 +24149,24 @@
       <c r="K35" s="85"/>
       <c r="L35" s="86"/>
     </row>
-    <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="77" t="s">
-        <v>50</v>
+        <v>118</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="80" t="s">
+        <v>119</v>
       </c>
       <c r="H36" s="78"/>
       <c r="I36" s="78"/>
@@ -20072,18 +24174,194 @@
       <c r="K36" s="78"/>
       <c r="L36" s="79"/>
     </row>
+    <row r="37" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="79"/>
+    </row>
+    <row r="38" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="79"/>
+    </row>
+    <row r="39" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="79"/>
+    </row>
+    <row r="40" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="79"/>
+    </row>
+    <row r="41" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="79"/>
+    </row>
+    <row r="42" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="69"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="79"/>
+    </row>
+    <row r="44" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="70"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G37:L37"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G44:L44"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
     <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/提出物/詳細設計書【編集：伊藤明洋】.xlsx
+++ b/提出物/詳細設計書【編集：伊藤明洋】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA4DA7C-5A34-470B-8BC4-C6F4518C3635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76382336-470F-4039-8736-53364B520345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="1" activeTab="7" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="1" activeTab="6" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="143">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -1846,6 +1846,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1881,9 +1884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14573,7 +14573,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15126,97 +15126,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>はい　　　いいえ</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>135732</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388517E3-E3C6-4171-9719-0CF2C6070055}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8929688" y="4488656"/>
-          <a:ext cx="864393" cy="219076"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>へ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19743,11 +19652,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19763,7 +19672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -20180,14 +20089,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
@@ -20205,14 +20114,14 @@
       <c r="F28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="80"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="59" t="s">
@@ -20230,14 +20139,14 @@
       <c r="F29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="80"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="60" t="s">
@@ -20255,14 +20164,14 @@
       <c r="F30" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="80"/>
     </row>
     <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="60" t="s">
@@ -20280,14 +20189,14 @@
       <c r="F31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="62" t="s">
@@ -20305,14 +20214,14 @@
       <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="61" t="s">
@@ -20330,14 +20239,14 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="80" t="s">
+      <c r="G33" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="62" t="s">
@@ -20355,14 +20264,14 @@
       <c r="F34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="80" t="s">
+      <c r="G34" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="63" t="s">
@@ -20372,14 +20281,14 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="77" t="s">
+      <c r="G35" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -20818,14 +20727,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -20843,14 +20752,14 @@
       <c r="F28" s="58">
         <v>256</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
@@ -20868,14 +20777,14 @@
       <c r="F29" s="58">
         <v>16</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
@@ -20893,14 +20802,14 @@
       <c r="F30" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="58" t="s">
@@ -20918,14 +20827,14 @@
       <c r="F31" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
@@ -20943,14 +20852,14 @@
       <c r="F32" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
@@ -20968,14 +20877,14 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="70" t="s">
@@ -20993,14 +20902,14 @@
       <c r="F34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="77" t="s">
+      <c r="G34" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="69" t="s">
@@ -21018,14 +20927,14 @@
       <c r="F35" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="87"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="70" t="s">
@@ -21035,14 +20944,14 @@
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
       <c r="F36" s="58"/>
-      <c r="G36" s="77" t="s">
+      <c r="G36" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -21482,14 +21391,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -21507,14 +21416,14 @@
       <c r="F28" s="58">
         <v>256</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="61" t="s">
@@ -21532,14 +21441,14 @@
       <c r="F29" s="58">
         <v>256</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
@@ -21557,14 +21466,14 @@
       <c r="F30" s="58">
         <v>16</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
     </row>
     <row r="31" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="70" t="s">
@@ -21582,14 +21491,14 @@
       <c r="F31" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
@@ -21607,14 +21516,14 @@
       <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
@@ -21632,14 +21541,14 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="69" t="s">
@@ -21657,14 +21566,14 @@
       <c r="F34" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="69" t="s">
@@ -21674,14 +21583,14 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22120,14 +22029,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
@@ -22145,14 +22054,14 @@
       <c r="F28" s="58">
         <v>16</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="58" t="s">
@@ -22170,14 +22079,14 @@
       <c r="F29" s="58">
         <v>16</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="75" t="s">
@@ -22195,14 +22104,14 @@
       <c r="F30" s="58">
         <v>16</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
     </row>
     <row r="31" spans="2:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="70" t="s">
@@ -22220,14 +22129,14 @@
       <c r="F31" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
@@ -22245,14 +22154,14 @@
       <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
@@ -22270,14 +22179,14 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="69" t="s">
@@ -22295,14 +22204,14 @@
       <c r="F34" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="69" t="s">
@@ -22312,14 +22221,14 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22758,14 +22667,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="58" t="s">
@@ -22783,14 +22692,14 @@
       <c r="F28" s="58">
         <v>16</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="58" t="s">
@@ -22808,14 +22717,14 @@
       <c r="F29" s="58">
         <v>16</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="75" t="s">
@@ -22833,14 +22742,14 @@
       <c r="F30" s="58">
         <v>16</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
     </row>
     <row r="31" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="70" t="s">
@@ -22858,14 +22767,14 @@
       <c r="F31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="70" t="s">
@@ -22883,14 +22792,14 @@
       <c r="F32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
@@ -22908,14 +22817,14 @@
       <c r="F33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="69" t="s">
@@ -22933,14 +22842,14 @@
       <c r="F34" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="69" t="s">
@@ -22950,14 +22859,14 @@
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22982,7 +22891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE9436-1D76-45B2-849B-36480BCEC328}">
   <dimension ref="A2:T32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G32" sqref="G32:L32"/>
     </sheetView>
   </sheetViews>
@@ -23396,14 +23305,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="74" t="s">
@@ -23421,14 +23330,14 @@
       <c r="F28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
@@ -23446,56 +23355,44 @@
       <c r="F29" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="87" t="s">
+      <c r="G29" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+        <v>32</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="69" t="s">
-        <v>32</v>
-      </c>
+      <c r="B31" s="69"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
-      <c r="G31" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="86"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="87"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="63"/>
@@ -23503,12 +23400,12 @@
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -23530,7 +23427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD52BF-AF0D-456A-B882-385AE863DDBE}">
   <dimension ref="A2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
@@ -23944,14 +23841,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="67" t="s">
@@ -23969,14 +23866,14 @@
       <c r="F28" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="69" t="s">
@@ -23994,14 +23891,14 @@
       <c r="F29" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
     </row>
     <row r="30" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="58" t="s">
@@ -24019,14 +23916,14 @@
       <c r="F30" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
     </row>
     <row r="31" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="58" t="s">
@@ -24044,17 +23941,17 @@
       <c r="F31" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="76" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="58" t="s">
@@ -24069,14 +23966,14 @@
       <c r="F32" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="70" t="s">
@@ -24094,14 +23991,14 @@
       <c r="F33" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="70" t="s">
@@ -24115,14 +24012,14 @@
       </c>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
-      <c r="G34" s="77" t="s">
+      <c r="G34" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="69" t="s">
@@ -24140,14 +24037,14 @@
       <c r="F35" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="87"/>
     </row>
     <row r="36" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="70" t="s">
@@ -24165,14 +24062,14 @@
       <c r="F36" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="80" t="s">
+      <c r="G36" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="70" t="s">
@@ -24190,14 +24087,14 @@
       <c r="F37" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="80" t="s">
+      <c r="G37" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="80"/>
     </row>
     <row r="38" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="69" t="s">
@@ -24215,14 +24112,14 @@
       <c r="F38" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="80" t="s">
+      <c r="G38" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="80"/>
     </row>
     <row r="39" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="69" t="s">
@@ -24240,14 +24137,14 @@
       <c r="F39" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="80" t="s">
+      <c r="G39" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="80"/>
     </row>
     <row r="40" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="69" t="s">
@@ -24265,14 +24162,14 @@
       <c r="F40" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="80" t="s">
+      <c r="G40" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="69" t="s">
@@ -24290,14 +24187,14 @@
       <c r="F41" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="80" t="s">
+      <c r="G41" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="80"/>
     </row>
     <row r="42" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="69" t="s">
@@ -24307,14 +24204,14 @@
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
-      <c r="G42" s="84" t="s">
+      <c r="G42" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
     </row>
     <row r="43" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="69"/>
@@ -24322,12 +24219,12 @@
       <c r="D43" s="58"/>
       <c r="E43" s="58"/>
       <c r="F43" s="58"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="79"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="80"/>
     </row>
     <row r="44" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="70"/>
@@ -24335,20 +24232,15 @@
       <c r="D44" s="58"/>
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="79"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:L35"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
@@ -24362,6 +24254,11 @@
     <mergeCell ref="G40:L40"/>
     <mergeCell ref="G41:L41"/>
     <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
